--- a/experiment_results/15081P240.xlsx
+++ b/experiment_results/15081P240.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Food Festivals', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Cruises', 'Food Festivals']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Museums']</t>
+          <t>Category: ['Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3442,7 +3442,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16133P1</t>
+          <t>PRODUCTCODE: 74526P35</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -3457,7 +3457,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Summarized description: Grand Central Terminal tour includes little-known secrets, anecdotes, archival material and the history of this famous train station. The tour is available in English, French, Spanish, Japanese, Italian, Chinese and German.</t>
+          <t>Summarized description: General Admission skating ticket good for up to a 2-Hour session and includes your skate rental. Head to one of the most famous Cathedrals in the world for a 1-Hour audio tour.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -3472,7 +3472,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Title: New York City's Grand Central Terminal Official Audio Tour</t>
+          <t>Title: Ice Skating at The Rink at Rockefeller Center plus St Patrick's Cathedral Tour</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>TotalReviews: 46</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -3502,7 +3502,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Entertainment', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -3517,7 +3517,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20804P9</t>
+          <t>PRODUCTCODE: 108074P7</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -3532,7 +3532,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Summarized description: The 9/11 Tribute Museum Audio Tour offers visitors the ability to connect with people from the9/11 community. Visitors will learn about the historic events of that day.</t>
+          <t>Summarized description: This tour visits several of the most famous, iconic, beautiful and historical houses of faith in New York City. From St Patrick's Cathedral, to St Paul's chapel and several more. This tour features many photo opportunities, and is packed with history, stories and special moments.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -3547,7 +3547,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Title: 9/11 Memorial Audio Tour</t>
+          <t>Title: Churches, Chapels and Cathedrals</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3562,7 +3562,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -3577,7 +3577,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -3592,7 +3592,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17024P546</t>
+          <t>PRODUCTCODE: 302481P133</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -3607,7 +3607,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself into over 200 years of New York City on this journey through the historic Catacombs of Old St. Patrick's Cathedral.</t>
+          <t>Summarized description: The St. Patrick's Cathedral is the largest gothic-style cathedral in the United States. The mobile app is available on App Store and Google Play and works offline.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -3622,7 +3622,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Title: New York's Catacombs by candlelight tour Edit</t>
+          <t>Title: Mysteries of St. Patrick's Cathedral Audio Tour</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3637,7 +3637,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -3667,7 +3667,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108074P7</t>
+          <t>PRODUCTCODE: 336379P10</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -3682,7 +3682,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Summarized description: This tour visits several of the most famous, iconic, beautiful and historical houses of faith in New York City. From St Patrick's Cathedral, to St Paul's chapel and several more. This tour features many photo opportunities, and is packed with history, stories and special moments.</t>
+          <t>Summarized description: Top of the Rocks is located in Rockefeller center on 5th ave between 49th and 50th Street. It is one of the most desired observation decks located in the heart of NYC. You will enjoy access to both attractions.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -3697,7 +3697,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Title: Churches, Chapels and Cathedrals</t>
+          <t>Title: Top of The Rocks Observations Deck and St Patricks Cathedral Official Tour</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3712,7 +3712,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -3727,7 +3727,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -3742,7 +3742,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 302481P133</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -3754,156 +3754,6 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Summarized description: The St. Patrick's Cathedral is the largest gothic-style cathedral in the United States. The mobile app is available on App Store and Google Play and works offline.</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Title: Mysteries of St. Patrick's Cathedral Audio Tour</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 336379P10</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Summarized description: Top of the Rocks is located in Rockefeller center on 5th ave between 49th and 50th Street. It is one of the most desired observation decks located in the heart of NYC. You will enjoy access to both attractions.</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Title: Top of The Rocks Observations Deck and St Patricks Cathedral Official Tour</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Category: ['Modern Attractions', 'Museums']</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/15081P240.xlsx
+++ b/experiment_results/15081P240.xlsx
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Cruises', 'Food Festivals']</t>
+          <t>Category: ['Food Festivals', 'Cultural Cruises', 'Entertainment']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3577,7 +3577,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>

--- a/experiment_results/15081P240.xlsx
+++ b/experiment_results/15081P240.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +530,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P240</t>
+          <t>REFERENCE PRODUCT: 15081P240</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -545,7 +545,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Summarized description: The 160-year history of St. Patrick's Cathedral is shared by the men and women who know it best in this official audio tour. Cardinal Timothy Dolan, Monsignor Robert Ritchie and others tell their personal stories.</t>
+          <t>pdt_product_detail_PRODUCTTITLE_translated: St Patrick's Cathedral Official Audio Tour</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -560,7 +560,8 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Title: St Patrick's Cathedral Official Audio Tour</t>
+          <t>
+</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -575,7 +576,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TotalReviews: 34</t>
+          <t>SIMILAR PRODUCTS WITHOUT OPENAI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -590,7 +591,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>PRODUCTCODE: 41393P2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -605,8 +606,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t>Summarized description: Enter off limits areas like the two walled cemeteries and an exclusive experience in the CATACOMBS beneath the Old Cathedral. Enjoy this fascinating 90 minute group tour that introduces you to all of the secrets of the Basilica.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -621,7 +621,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SIMILAR PRODUCTS WITHOUT OPENAI</t>
+          <t>Title: New York Catacombs by Candlelight</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -636,7 +636,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 41393P2</t>
+          <t>TotalReviews: 2486</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -651,7 +651,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Summarized description: Enter off limits areas like the two walled cemeteries and an exclusive experience in the CATACOMBS beneath the Old Cathedral. Enjoy this fascinating 90 minute group tour that introduces you to all of the secrets of the Basilica.</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -666,7 +666,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Title: New York Catacombs by Candlelight</t>
+          <t>PRODUCTCODE: 7195TOUR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -681,7 +681,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TotalReviews: 2486</t>
+          <t>Summarized description: Learn the historical importance of the World Trade Center and the events of 9/11. You'll leave with a renewed perspective of how the memorial was created with the site's past and future in mind.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Title: NYC 9/11 Memorial Official Tour</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -711,7 +711,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7195TOUR</t>
+          <t>TotalReviews: 276</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -726,7 +726,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the historical importance of the World Trade Center and the events of 9/11. You'll leave with a renewed perspective of how the memorial was created with the site's past and future in mind.</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -741,7 +741,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Title: NYC 9/11 Memorial Official Tour</t>
+          <t>PRODUCTCODE: 21505P2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -756,7 +756,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TotalReviews: 276</t>
+          <t>Summarized description: Take a walk on the same colonial streets where it all happened. Listen to stories about real people like John Holt the ‘Liberty Printer’</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Title: NYC Revolutionary War-Era Walking Tour</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -786,7 +786,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 21505P2</t>
+          <t>TotalReviews: 66</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -801,7 +801,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Summarized description: Take a walk on the same colonial streets where it all happened. Listen to stories about real people like John Holt the ‘Liberty Printer’</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -816,7 +816,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Title: NYC Revolutionary War-Era Walking Tour</t>
+          <t>PRODUCTCODE: 16133P1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -831,7 +831,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TotalReviews: 66</t>
+          <t>Summarized description: Grand Central Terminal tour includes little-known secrets, anecdotes, archival material and the history of this famous train station. The tour is available in English, French, Spanish, Japanese, Italian, Chinese and German.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Title: New York City's Grand Central Terminal Official Audio Tour</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -861,7 +861,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16133P1</t>
+          <t>TotalReviews: 46</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -876,7 +876,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Summarized description: Grand Central Terminal tour includes little-known secrets, anecdotes, archival material and the history of this famous train station. The tour is available in English, French, Spanish, Japanese, Italian, Chinese and German.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -891,7 +891,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Title: New York City's Grand Central Terminal Official Audio Tour</t>
+          <t>PRODUCTCODE: 225840P1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -906,7 +906,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TotalReviews: 46</t>
+          <t>Summarized description: Kings County Distillery is New York City’s oldest, largest, and premier whiskey distillery. Founded in 2010, Kings County makes handmade moonshine, bourbon, and other whiskeys out of the 120-year-old Paymaster Building.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: Kings County Distillery - Tour</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -936,7 +936,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 225840P1</t>
+          <t>TotalReviews: 33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -951,7 +951,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Summarized description: Kings County Distillery is New York City’s oldest, largest, and premier whiskey distillery. Founded in 2010, Kings County makes handmade moonshine, bourbon, and other whiskeys out of the 120-year-old Paymaster Building.</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -966,7 +966,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Title: Kings County Distillery - Tour</t>
+          <t>PRODUCTCODE: 151053P1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -981,7 +981,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TotalReviews: 33</t>
+          <t>Summarized description: Join us on our Village Pride Walking Tour! We will visit historic sites where revolutions began, riots were sparked, and history was made. We will see common threads within the LGBTQ+ generations who have lived life in New York City, sharing their stories.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Title: Village Pride LGBTQ+ History Walking Tour</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 151053P1</t>
+          <t>TotalReviews: 30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1026,7 +1026,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Summarized description: Join us on our Village Pride Walking Tour! We will visit historic sites where revolutions began, riots were sparked, and history was made. We will see common threads within the LGBTQ+ generations who have lived life in New York City, sharing their stories.</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1041,7 +1041,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Title: Village Pride LGBTQ+ History Walking Tour</t>
+          <t>PRODUCTCODE: 26697P13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1056,7 +1056,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>Summarized description: The Brooklyn Bridge is over 130 years old and has attracted millions of tourists and residents alike. On this tour you will not only unpack the history behind the Brooklyn Bridge, but also explore its many hidden secrets.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Title: Secrets of the Brooklyn Bridge Walking Tour</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26697P13</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Summarized description: The Brooklyn Bridge is over 130 years old and has attracted millions of tourists and residents alike. On this tour you will not only unpack the history behind the Brooklyn Bridge, but also explore its many hidden secrets.</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1116,7 +1116,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Title: Secrets of the Brooklyn Bridge Walking Tour</t>
+          <t>PRODUCTCODE: 20804P9</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>Summarized description: The 9/11 Tribute Museum Audio Tour offers visitors the ability to connect with people from the9/11 community. Visitors will learn about the historic events of that day.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Title: 9/11 Memorial Audio Tour</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1161,7 +1161,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20804P9</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Summarized description: The 9/11 Tribute Museum Audio Tour offers visitors the ability to connect with people from the9/11 community. Visitors will learn about the historic events of that day.</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1191,7 +1191,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Title: 9/11 Memorial Audio Tour</t>
+          <t>PRODUCTCODE: 74526P35</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1206,7 +1206,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>Summarized description: General Admission skating ticket good for up to a 2-Hour session and includes your skate rental. Head to one of the most famous Cathedrals in the world for a 1-Hour audio tour.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Title: Ice Skating at The Rink at Rockefeller Center plus St Patrick's Cathedral Tour</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1236,7 +1236,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P35</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Summarized description: General Admission skating ticket good for up to a 2-Hour session and includes your skate rental. Head to one of the most famous Cathedrals in the world for a 1-Hour audio tour.</t>
+          <t>Category: ['Entertainment', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1266,7 +1266,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Title: Ice Skating at The Rink at Rockefeller Center plus St Patrick's Cathedral Tour</t>
+          <t>PRODUCTCODE: 110804P446</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1281,7 +1281,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>Summarized description: Self-guided walking tour produced by Emmy-nominated storyteller. Take in views of Lady Liberty and hear how one of today’s most valuable islands, Manhattan, was bought for a few beads.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Title: The Battery: A Self-Guided Audio Tour from Bowling Green Park to Stone St</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1311,7 +1311,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110804P446</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Summarized description: Self-guided walking tour produced by Emmy-nominated storyteller. Take in views of Lady Liberty and hear how one of today’s most valuable islands, Manhattan, was bought for a few beads.</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1341,7 +1341,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Title: The Battery: A Self-Guided Audio Tour from Bowling Green Park to Stone St</t>
+          <t>PRODUCTCODE: 17024P546</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -1356,7 +1356,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>Summarized description: Immerse yourself into over 200 years of New York City on this journey through the historic Catacombs of Old St. Patrick's Cathedral.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Title: New York's Catacombs by candlelight tour Edit</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1386,7 +1386,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17024P546</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself into over 200 years of New York City on this journey through the historic Catacombs of Old St. Patrick's Cathedral.</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Title: New York's Catacombs by candlelight tour Edit</t>
+          <t>PRODUCTCODE: 110804P469</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1431,7 +1431,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>Summarized description: Self-guided walking tour produced by an Emmy-nominated storyteller. Do it all in two-hours or linger at stops along the way with complete control over when you start and finish.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Title: Woodlawn Cemetery: A Self-Guided Audio Tour of Gilded Age Art and Architecture</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1461,7 +1461,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110804P469</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Summarized description: Self-guided walking tour produced by an Emmy-nominated storyteller. Do it all in two-hours or linger at stops along the way with complete control over when you start and finish.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -1491,7 +1491,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Title: Woodlawn Cemetery: A Self-Guided Audio Tour of Gilded Age Art and Architecture</t>
+          <t>PRODUCTCODE: 101505P6</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -1506,7 +1506,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: This tour is organized by The Bowery Boys New York City History podcast. The goal of this tour is to bring history to life on the streets of the Big Apple.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: Ghosts of the Elevated Railroads Walking Tour</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1536,7 +1536,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101505P6</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -1551,7 +1551,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Summarized description: This tour is organized by The Bowery Boys New York City History podcast. The goal of this tour is to bring history to life on the streets of the Big Apple.</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1566,7 +1566,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Title: Ghosts of the Elevated Railroads Walking Tour</t>
+          <t>PRODUCTCODE: 110804P463</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -1581,7 +1581,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: VoiceMap is a self-guided walking tour produced by an Emmy-nominated storyteller. Do it all in 90 minutes or linger at stops along the way. Get unlimited use before your booking date and after.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Title: Boho Greenwich Village: A Self-Guided Audio Tour</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1611,7 +1611,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110804P463</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -1626,7 +1626,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Summarized description: VoiceMap is a self-guided walking tour produced by an Emmy-nominated storyteller. Do it all in 90 minutes or linger at stops along the way. Get unlimited use before your booking date and after.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -1641,7 +1641,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Title: Boho Greenwich Village: A Self-Guided Audio Tour</t>
+          <t>PRODUCTCODE: 57246P133</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -1656,7 +1656,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: Self-guided audio tour in English on your phone. Follow, at your own pace, the riveting journey of the city. Enjoy a hassle-free walking city tour.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: Self-Guided Audio Tour of New York City</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1686,7 +1686,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 57246P133</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -1701,7 +1701,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Summarized description: Self-guided audio tour in English on your phone. Follow, at your own pace, the riveting journey of the city. Enjoy a hassle-free walking city tour.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -1716,7 +1716,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Title: Self-Guided Audio Tour of New York City</t>
+          <t>PRODUCTCODE: 108074P7</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -1731,7 +1731,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: This tour visits several of the most famous, iconic, beautiful and historical houses of faith in New York City. From St Patrick's Cathedral, to St Paul's chapel and several more. This tour features many photo opportunities, and is packed with history, stories and special moments.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: Churches, Chapels and Cathedrals</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1761,7 +1761,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108074P7</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -1776,7 +1776,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Summarized description: This tour visits several of the most famous, iconic, beautiful and historical houses of faith in New York City. From St Patrick's Cathedral, to St Paul's chapel and several more. This tour features many photo opportunities, and is packed with history, stories and special moments.</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -1791,7 +1791,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Title: Churches, Chapels and Cathedrals</t>
+          <t>PRODUCTCODE: 18568P51</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -1806,7 +1806,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: Learn more about the top 18 tourist attractions in New York City. Its history, culture, myths, architecture, and other important facts are in this audio commentary.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Title: New York City Self-Guided Audio Tour</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1836,7 +1836,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 18568P51</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Summarized description: Learn more about the top 18 tourist attractions in New York City. Its history, culture, myths, architecture, and other important facts are in this audio commentary.</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -1866,7 +1866,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Title: New York City Self-Guided Audio Tour</t>
+          <t>PRODUCTCODE: 64880P4</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -1881,7 +1881,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: Learn the extraordinary untold theatrical history of The Actors' Temple. The Three Stooges, Jack Benny, and Jerry Lewis were all members of this unique congregation.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Title: Tour of the Actors' Temple (powered by Show-Score)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1911,7 +1911,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 64880P4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -1926,7 +1926,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the extraordinary untold theatrical history of The Actors' Temple. The Three Stooges, Jack Benny, and Jerry Lewis were all members of this unique congregation.</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -1941,7 +1941,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Title: Tour of the Actors' Temple (powered by Show-Score)</t>
+          <t>PRODUCTCODE: 229796P1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -1956,7 +1956,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: Take an insider's tour of Santiago Calatrava's controversial and now iconic 2016 structure. View one-of-a-kind photos showing its construction and how this latest transportation hub grew out of Ground Zero.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Title: Oculus Transportation Center Walking Tour</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -1986,7 +1986,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 229796P1</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -2001,7 +2001,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Summarized description: Take an insider's tour of Santiago Calatrava's controversial and now iconic 2016 structure. View one-of-a-kind photos showing its construction and how this latest transportation hub grew out of Ground Zero.</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -2016,7 +2016,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Title: Oculus Transportation Center Walking Tour</t>
+          <t>PRODUCTCODE: 46058PHIL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -2031,7 +2031,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Join us in celebrating our 175th anniversary. Celebrate our storied legacy and rich history championing new masterpieces. applaud our intrepid Music Director Alan Gilbert in his final season.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Title: 2016-17 Concert Season at the New York Philharmonic</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2061,7 +2061,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46058PHIL</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -2076,7 +2076,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Summarized description: Join us in celebrating our 175th anniversary. Celebrate our storied legacy and rich history championing new masterpieces. applaud our intrepid Music Director Alan Gilbert in his final season.</t>
+          <t>Category: ['Performing Arts']</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Title: 2016-17 Concert Season at the New York Philharmonic</t>
+          <t>PRODUCTCODE: 139221P1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -2106,7 +2106,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Memorial is a church where everyone is welcome. This is a tour of our historical sanctuary, a full gospel concert featuring "The Memorial Singers of Harlem" and a light breakfast.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts']</t>
+          <t>Title: Gospel Church Tour, Concert and Light Breakfast</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2136,7 +2136,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 139221P1</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -2151,7 +2151,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Summarized description: Memorial is a church where everyone is welcome. This is a tour of our historical sanctuary, a full gospel concert featuring "The Memorial Singers of Harlem" and a light breakfast.</t>
+          <t>Category: ['Performing Arts', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -2166,7 +2166,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Title: Gospel Church Tour, Concert and Light Breakfast</t>
+          <t>PRODUCTCODE: 110804P331</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -2181,7 +2181,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Find out about some of the most seminal theatres in Broadway history, and the plays that became hits around the world. Discover the hidden history and lesser known figures of the Broadway theatre scene.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Performing Arts']</t>
+          <t>Title: Broadway: A Self-Guided Audio Tour of the World's Iconic Theatre District</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2211,7 +2211,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110804P331</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Summarized description: Find out about some of the most seminal theatres in Broadway history, and the plays that became hits around the world. Discover the hidden history and lesser known figures of the Broadway theatre scene.</t>
+          <t>Category: ['Performing Arts', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -2241,7 +2241,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Title: Broadway: A Self-Guided Audio Tour of the World's Iconic Theatre District</t>
+          <t>PRODUCTCODE: 222222P78</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -2256,7 +2256,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>Summarized description: Explore Greenwich villiages spooky sites that are said to be haunted by Mark Twain, Thomas Pain and Aaron Burr. Go at your own pace and schedule, this tour is all out side and navigated by technology in our walking tour app (NOT THE VIATOR APP)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Performing Arts']</t>
+          <t>Title: Private Haunted and Historic Audio Tour in Greenwich Village</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2286,7 +2286,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 222222P78</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -2301,7 +2301,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Greenwich villiages spooky sites that are said to be haunted by Mark Twain, Thomas Pain and Aaron Burr. Go at your own pace and schedule, this tour is all out side and navigated by technology in our walking tour app (NOT THE VIATOR APP)</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Title: Private Haunted and Historic Audio Tour in Greenwich Village</t>
+          <t>PRODUCTCODE: 330348P26</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -2331,7 +2331,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Listen to the audio guide online, or offline. The content is professionally created by a group of top authors. The smartphone is yours and you will not have contact with unsanitary devices provided by third parties.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Title: Private Audio Guided Walking Tour in New York</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2361,7 +2361,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 330348P26</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Summarized description: Listen to the audio guide online, or offline. The content is professionally created by a group of top authors. The smartphone is yours and you will not have contact with unsanitary devices provided by third parties.</t>
+          <t>Category: ['']</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -2391,7 +2391,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Title: Private Audio Guided Walking Tour in New York</t>
+          <t>PRODUCTCODE: 290072P5</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Our unmatched service provides an all-inclusive ceremony opportunity which includes live streaming in 1080p HD on Vimeo for guests to watch remotely. We provide the use of 2 BOSE PA speakers and a rode microphone for exceptional amplification if needed.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['']</t>
+          <t>Title: Private Wedding Experience on The Hudson</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2436,7 +2436,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 290072P5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Summarized description: Our unmatched service provides an all-inclusive ceremony opportunity which includes live streaming in 1080p HD on Vimeo for guests to watch remotely. We provide the use of 2 BOSE PA speakers and a rode microphone for exceptional amplification if needed.</t>
+          <t>Category: ['', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -2466,7 +2466,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Title: Private Wedding Experience on The Hudson</t>
+          <t>PRODUCTCODE: 46058P8</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: This concert is a special event of the 2016–17 season. David Newman leads the orchestra the New York Philharmonic to John Williams' score performed live to film. This New York premiere is not to be missed!</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['', 'Cultural Tours']</t>
+          <t>Title: ET at the New York Philharmonic</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2511,7 +2511,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46058P8</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -2526,7 +2526,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Summarized description: This concert is a special event of the 2016–17 season. David Newman leads the orchestra the New York Philharmonic to John Williams' score performed live to film. This New York premiere is not to be missed!</t>
+          <t>Category: ['Performing Arts']</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Title: ET at the New York Philharmonic</t>
+          <t>PRODUCTCODE: 302481P133</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -2556,7 +2556,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The St. Patrick's Cathedral is the largest gothic-style cathedral in the United States. The mobile app is available on App Store and Google Play and works offline.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts']</t>
+          <t>Title: Mysteries of St. Patrick's Cathedral Audio Tour</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2586,7 +2586,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 302481P133</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -2601,7 +2601,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Summarized description: The St. Patrick's Cathedral is the largest gothic-style cathedral in the United States. The mobile app is available on App Store and Google Play and works offline.</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -2616,7 +2616,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Title: Mysteries of St. Patrick's Cathedral Audio Tour</t>
+          <t>PRODUCTCODE: 110804P316</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -2631,7 +2631,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: This self-guided audio tour will take you through the fairgrounds for the historic New York City World’s Fairs of 1939-40 and 1964-65. You’ll hear about the origins of the park, which inspired F. Scott Fitzgerald when it was an eyesore ash heap.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Title: New York World's Fair Site: Explore its utopian future on an audio tour</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2661,7 +2661,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110804P316</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Summarized description: This self-guided audio tour will take you through the fairgrounds for the historic New York City World’s Fairs of 1939-40 and 1964-65. You’ll hear about the origins of the park, which inspired F. Scott Fitzgerald when it was an eyesore ash heap.</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Title: New York World's Fair Site: Explore its utopian future on an audio tour</t>
+          <t>PRODUCTCODE: 30114P55</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -2706,7 +2706,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: This self-guided audio tour allows you to set the pace and explore at your leisure as you uncover the stories of this amazing city. The tour will take approximately two hours, but you can pause the audio guide when needed.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Title: Stunning New York City Self-Guided Audio Tour</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2736,7 +2736,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 30114P55</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -2751,7 +2751,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Summarized description: This self-guided audio tour allows you to set the pace and explore at your leisure as you uncover the stories of this amazing city. The tour will take approximately two hours, but you can pause the audio guide when needed.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -2766,7 +2766,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Title: Stunning New York City Self-Guided Audio Tour</t>
+          <t>PRODUCTCODE: 2342STUDIO</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -2781,7 +2781,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Take the NBC Studio Tour that's been wowing lovers of radio and TV since 1933. You'll learn about NBC's early radio days and its transition into television.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: NBC Studio Tour</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2811,7 +2811,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2342STUDIO</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -2826,7 +2826,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Summarized description: Take the NBC Studio Tour that's been wowing lovers of radio and TV since 1933. You'll learn about NBC's early radio days and its transition into television.</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -2841,7 +2841,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Title: NBC Studio Tour</t>
+          <t>PRODUCTCODE: 46058P9</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The New York Philharmonic’s 2016–17 season celebrates two major milestones. The season will honor the Philharmonics and Alan Gilbert's shared hometown of New York City. It will also celebrate the myriad initiatives the Music Director has introduced.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Title: New York Philharmonic Season Finale</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2886,7 +2886,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46058P9</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -2901,7 +2901,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Summarized description: The New York Philharmonic’s 2016–17 season celebrates two major milestones. The season will honor the Philharmonics and Alan Gilbert's shared hometown of New York City. It will also celebrate the myriad initiatives the Music Director has introduced.</t>
+          <t>Category: ['Performing Arts']</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Title: New York Philharmonic Season Finale</t>
+          <t>PRODUCTCODE: 26697P31</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -2931,7 +2931,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: This tour celebrates the heroes who saved thousands of lives on 9/11. Hear about “Big Mike” of the FDNY and his harrowing elevator rescue. Follow the Footsteps of Firefighter Stephen Siller into immortality. Use blueprints exclusively created for this tour.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts']</t>
+          <t>Title: Celebrating Heroes 9/11 Memorial Guided Tour</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -2961,7 +2961,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26697P31</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Summarized description: This tour celebrates the heroes who saved thousands of lives on 9/11. Hear about “Big Mike” of the FDNY and his harrowing elevator rescue. Follow the Footsteps of Firefighter Stephen Siller into immortality. Use blueprints exclusively created for this tour.</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -2991,7 +2991,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Title: Celebrating Heroes 9/11 Memorial Guided Tour</t>
+          <t>PRODUCTCODE: 2800PAT</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -3006,7 +3006,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: First annual St. Patrick's Day Cruise sponsored by Coney Island Brewing Company. Escape the rowdy, crowded, NYC bars this year and celebrate St. Paddy's Day cruisin' and boozin' along the Hudson River.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Title: Circle Line: St. Patrick's Day Cruise</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3036,7 +3036,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2800PAT</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -3051,7 +3051,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Summarized description: First annual St. Patrick's Day Cruise sponsored by Coney Island Brewing Company. Escape the rowdy, crowded, NYC bars this year and celebrate St. Paddy's Day cruisin' and boozin' along the Hudson River.</t>
+          <t>Category: ['Food Festivals', 'Entertainment', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -3066,7 +3066,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Title: Circle Line: St. Patrick's Day Cruise</t>
+          <t>PRODUCTCODE: 336379P10</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -3081,7 +3081,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Top of the Rocks is located in Rockefeller center on 5th ave between 49th and 50th Street. It is one of the most desired observation decks located in the heart of NYC. You will enjoy access to both attractions.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Food Festivals', 'Cultural Cruises', 'Entertainment']</t>
+          <t>Title: Top of The Rocks Observations Deck and St Patricks Cathedral Official Tour</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3111,7 +3111,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P10</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -3126,7 +3126,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Summarized description: Top of the Rocks is located in Rockefeller center on 5th ave between 49th and 50th Street. It is one of the most desired observation decks located in the heart of NYC. You will enjoy access to both attractions.</t>
+          <t>Category: ['Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -3141,7 +3141,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Title: Top of The Rocks Observations Deck and St Patricks Cathedral Official Tour</t>
+          <t>PRODUCTCODE: 26697P14</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
@@ -3156,7 +3156,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The American Irish Historical Society is opening its doors to Untapped Cities. The five story Beaux-Arts townhouse was a private home before it was purchased by the Society in 1939.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Title: Insider Tour of the American Irish Historical Society</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3186,7 +3186,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26697P14</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
@@ -3201,7 +3201,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Summarized description: The American Irish Historical Society is opening its doors to Untapped Cities. The five story Beaux-Arts townhouse was a private home before it was purchased by the Society in 1939.</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -3216,7 +3216,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Title: Insider Tour of the American Irish Historical Society</t>
+          <t>PRODUCTCODE: 116728P2</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
@@ -3231,7 +3231,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: MTA Metro-North Railroad, which operates the Terminal, has teamed up with Orpheo USA, one of the world's most experienced producers of audio tours. The self-guided tour can last 30 minutes to just over an hour.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Title: Grand Central Official Audio Tour</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3261,7 +3261,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116728P2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -3276,7 +3276,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Summarized description: MTA Metro-North Railroad, which operates the Terminal, has teamed up with Orpheo USA, one of the world's most experienced producers of audio tours. The self-guided tour can last 30 minutes to just over an hour.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -3291,7 +3291,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Title: Grand Central Official Audio Tour</t>
+          <t>PRODUCTCODE: 310854P1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -3306,7 +3306,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: The 9/11 memorial is a beautiful, solemn, and thoughtful place for quiet reflection. It is also home to many other related memorials in the area that are just as poignant. As an art historian and artist, I will show you why memorials can take different design approaches.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Title: September 11th and Irish Hunger Memorials Tour</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3336,7 +3336,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 310854P1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -3351,7 +3351,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Summarized description: The 9/11 memorial is a beautiful, solemn, and thoughtful place for quiet reflection. It is also home to many other related memorials in the area that are just as poignant. As an art historian and artist, I will show you why memorials can take different design approaches.</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -3366,7 +3366,8 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Title: September 11th and Irish Hunger Memorials Tour</t>
+          <t>
+</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
@@ -3381,7 +3382,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>SIMILAR PRODUCTS WITH OPENAI</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
@@ -3396,7 +3397,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>PRODUCTCODE: 74526P35</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3411,8 +3412,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t>Summarized description: General Admission skating ticket good for up to a 2-Hour session and includes your skate rental. Head to one of the most famous Cathedrals in the world for a 1-Hour audio tour.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -3427,7 +3427,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SIMILAR PRODUCTS WITH OPENAI</t>
+          <t>Title: Ice Skating at The Rink at Rockefeller Center plus St Patrick's Cathedral Tour</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -3442,7 +3442,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P35</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -3457,7 +3457,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Summarized description: General Admission skating ticket good for up to a 2-Hour session and includes your skate rental. Head to one of the most famous Cathedrals in the world for a 1-Hour audio tour.</t>
+          <t>Category: ['Entertainment', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -3472,7 +3472,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Title: Ice Skating at The Rink at Rockefeller Center plus St Patrick's Cathedral Tour</t>
+          <t>PRODUCTCODE: 17024P546</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>Summarized description: Immerse yourself into over 200 years of New York City on this journey through the historic Catacombs of Old St. Patrick's Cathedral.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -3502,7 +3502,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Title: New York's Catacombs by candlelight tour Edit</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -3517,7 +3517,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108074P7</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -3532,7 +3532,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Summarized description: This tour visits several of the most famous, iconic, beautiful and historical houses of faith in New York City. From St Patrick's Cathedral, to St Paul's chapel and several more. This tour features many photo opportunities, and is packed with history, stories and special moments.</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -3547,7 +3547,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Title: Churches, Chapels and Cathedrals</t>
+          <t>PRODUCTCODE: 110804P469</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3562,7 +3562,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>Summarized description: Self-guided walking tour produced by an Emmy-nominated storyteller. Do it all in two-hours or linger at stops along the way with complete control over when you start and finish.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -3577,7 +3577,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Title: Woodlawn Cemetery: A Self-Guided Audio Tour of Gilded Age Art and Architecture</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -3592,7 +3592,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 302481P133</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -3607,7 +3607,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Summarized description: The St. Patrick's Cathedral is the largest gothic-style cathedral in the United States. The mobile app is available on App Store and Google Play and works offline.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -3622,7 +3622,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Title: Mysteries of St. Patrick's Cathedral Audio Tour</t>
+          <t>PRODUCTCODE: 110804P463</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3637,7 +3637,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: VoiceMap is a self-guided walking tour produced by an Emmy-nominated storyteller. Do it all in 90 minutes or linger at stops along the way. Get unlimited use before your booking date and after.</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Title: Boho Greenwich Village: A Self-Guided Audio Tour</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -3667,7 +3667,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P10</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -3682,7 +3682,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Summarized description: Top of the Rocks is located in Rockefeller center on 5th ave between 49th and 50th Street. It is one of the most desired observation decks located in the heart of NYC. You will enjoy access to both attractions.</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -3697,7 +3697,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Title: Top of The Rocks Observations Deck and St Patricks Cathedral Official Tour</t>
+          <t>PRODUCTCODE: 57246P133</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3712,7 +3712,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>Summarized description: Self-guided audio tour in English on your phone. Follow, at your own pace, the riveting journey of the city. Enjoy a hassle-free walking city tour.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -3727,7 +3727,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Title: Self-Guided Audio Tour of New York City</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -3742,7 +3742,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -3754,6 +3754,261 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
     </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours']</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 18568P51</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Summarized description: Learn more about the top 18 tourist attractions in New York City. Its history, culture, myths, architecture, and other important facts are in this audio commentary.</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Title: New York City Self-Guided Audio Tour</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>TotalReviews: 2</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 302481P133</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Summarized description: The St. Patrick's Cathedral is the largest gothic-style cathedral in the United States. The mobile app is available on App Store and Google Play and works offline.</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Title: Mysteries of St. Patrick's Cathedral Audio Tour</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 336379P10</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Summarized description: Top of the Rocks is located in Rockefeller center on 5th ave between 49th and 50th Street. It is one of the most desired observation decks located in the heart of NYC. You will enjoy access to both attractions.</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Title: Top of The Rocks Observations Deck and St Patricks Cathedral Official Tour</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Category: ['Museums', 'Modern Attractions']</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/15081P240.xlsx
+++ b/experiment_results/15081P240.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I234"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -726,7 +726,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1026,7 +1026,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Entertainment']</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1551,7 +1551,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1776,7 +1776,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -2001,7 +2001,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -2301,7 +2301,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -3051,7 +3051,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Category: ['Food Festivals', 'Entertainment', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Food Festivals', 'Entertainment']</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -3126,7 +3126,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -3201,7 +3201,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -3457,7 +3457,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Entertainment']</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -3472,7 +3472,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17024P546</t>
+          <t>PRODUCTCODE: 302481P133</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself into over 200 years of New York City on this journey through the historic Catacombs of Old St. Patrick's Cathedral.</t>
+          <t>Summarized description: The St. Patrick's Cathedral is the largest gothic-style cathedral in the United States. The mobile app is available on App Store and Google Play and works offline.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -3502,7 +3502,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Title: New York's Catacombs by candlelight tour Edit</t>
+          <t>Title: Mysteries of St. Patrick's Cathedral Audio Tour</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -3517,7 +3517,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -3547,7 +3547,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110804P469</t>
+          <t>PRODUCTCODE: 336379P10</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3562,7 +3562,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Summarized description: Self-guided walking tour produced by an Emmy-nominated storyteller. Do it all in two-hours or linger at stops along the way with complete control over when you start and finish.</t>
+          <t>Summarized description: Top of the Rocks is located in Rockefeller center on 5th ave between 49th and 50th Street. It is one of the most desired observation decks located in the heart of NYC. You will enjoy access to both attractions.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -3577,7 +3577,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Title: Woodlawn Cemetery: A Self-Guided Audio Tour of Gilded Age Art and Architecture</t>
+          <t>Title: Top of The Rocks Observations Deck and St Patricks Cathedral Official Tour</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -3592,7 +3592,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -3607,7 +3607,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Modern Attractions', 'Museums']</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -3622,7 +3622,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110804P463</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3634,381 +3634,6 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Summarized description: VoiceMap is a self-guided walking tour produced by an Emmy-nominated storyteller. Do it all in 90 minutes or linger at stops along the way. Get unlimited use before your booking date and after.</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Title: Boho Greenwich Village: A Self-Guided Audio Tour</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 57246P133</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Summarized description: Self-guided audio tour in English on your phone. Follow, at your own pace, the riveting journey of the city. Enjoy a hassle-free walking city tour.</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Title: Self-Guided Audio Tour of New York City</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 18568P51</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn more about the top 18 tourist attractions in New York City. Its history, culture, myths, architecture, and other important facts are in this audio commentary.</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Title: New York City Self-Guided Audio Tour</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 302481P133</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Summarized description: The St. Patrick's Cathedral is the largest gothic-style cathedral in the United States. The mobile app is available on App Store and Google Play and works offline.</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Title: Mysteries of St. Patrick's Cathedral Audio Tour</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 336379P10</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Summarized description: Top of the Rocks is located in Rockefeller center on 5th ave between 49th and 50th Street. It is one of the most desired observation decks located in the heart of NYC. You will enjoy access to both attractions.</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Title: Top of The Rocks Observations Deck and St Patricks Cathedral Official Tour</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr"/>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
